--- a/biology/Botanique/Banksia_sect._Banksia/Banksia_sect._Banksia.xlsx
+++ b/biology/Botanique/Banksia_sect._Banksia/Banksia_sect._Banksia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Banksia section Banksia est  l'une des quatre sections du sous-genre Banksia subg. Banksia.
 Elle regroupe les espèces de ce sous-genre ayant un style droit ou parfois incurvé mais jamais en crochet. Ces espèces ont toutes des inflorescences cylindriques et montrent habituellement une séquence ascendante lors de l'anthèse des fleurs. C'est une section à distribution étendue en Australie, dont les taxons se rencontrent dans les aires de diffusion du genre aussi bien sur les côtes sud-ouest que sur les côtes est.
